--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value883.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value883.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.283934754231485</v>
+        <v>3.133572101593018</v>
       </c>
       <c r="B1">
-        <v>2.488360709220965</v>
+        <v>2.328168630599976</v>
       </c>
       <c r="C1">
-        <v>3.230139054542178</v>
+        <v>1.936259865760803</v>
       </c>
       <c r="D1">
-        <v>3.488678871548828</v>
+        <v>1.84643828868866</v>
       </c>
       <c r="E1">
-        <v>1.082500127225783</v>
+        <v>1.653774380683899</v>
       </c>
     </row>
   </sheetData>
